--- a/QUESTÕES/DIR CONSTITUCIONAL 02.xlsx
+++ b/QUESTÕES/DIR CONSTITUCIONAL 02.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">DIR. CONSTITUICIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">módulo 02</t>
+    <t xml:space="preserve">MÓDULO 02</t>
   </si>
   <si>
     <t xml:space="preserve">A respeito dos direitos e garantias fundamentais, julgue o próximo item: Os direitos e garantias fundamentais encontram-se destacados exclusivamente no art. 5º do texto constitucional.</t>
@@ -691,7 +691,7 @@
   <dimension ref="A1:F105"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
